--- a/data/caiyi.xlsx
+++ b/data/caiyi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GuildleveExperienceCalculation-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GuildleveExperienceCalculation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3546DA5A-B167-4178-A489-8EB4C2157E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE1120D-96C2-4274-B087-073F32CB000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="288">
   <si>
     <t>[1] 制作委托：廉价的内衣</t>
   </si>
@@ -837,12 +837,64 @@
     <t>迷彩绒游击打底裤</t>
   </si>
   <si>
-    <t>[100] 制作委托：测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道什么玩意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>[90] 制作委托：治愈床头亚麻</t>
+  </si>
+  <si>
+    <t>雪木棉布×3</t>
+  </si>
+  <si>
+    <t>[90] 制作委托：基本的棉外套</t>
+  </si>
+  <si>
+    <t>雪木棉外套</t>
+  </si>
+  <si>
+    <t>[92] 制作委托：想在干净的画布上作画</t>
+  </si>
+  <si>
+    <t>高山亚麻布×3</t>
+  </si>
+  <si>
+    <t>[92] 制作委托：执着的亚麻斗篷</t>
+  </si>
+  <si>
+    <t>高山亚麻咏咒斗篷</t>
+  </si>
+  <si>
+    <t>[94] 制作委托：翱翔于天空的气球布</t>
+  </si>
+  <si>
+    <t>薄绢织物×3</t>
+  </si>
+  <si>
+    <t>[94] 制作委托：传统的薄绢长裤</t>
+  </si>
+  <si>
+    <t>薄绢精准长裤</t>
+  </si>
+  <si>
+    <t>[96] 制作委托：精妙的半指手套</t>
+  </si>
+  <si>
+    <t>犎牛哔叽治愈半指手套</t>
+  </si>
+  <si>
+    <t>[96] 制作委托：毛线编织的工作服就拜托你了</t>
+  </si>
+  <si>
+    <t>犎牛哔叽大地软甲裤</t>
+  </si>
+  <si>
+    <t>[98] 制作委托：丝绸手套就拜托你了</t>
+  </si>
+  <si>
+    <t>落雷绢咏咒手套</t>
+  </si>
+  <si>
+    <t>[98] 制作委托：极具挑战性的丝绸长衣</t>
+  </si>
+  <si>
+    <t>落雷绢咏咒长衣</t>
   </si>
 </sst>
 </file>
@@ -3444,10 +3496,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ECAB98-F8EF-4693-ABC1-181239F8870F}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3457,13 +3509,139 @@
         <v>268</v>
       </c>
       <c r="C1">
-        <v>2257300</v>
+        <v>1440660</v>
       </c>
       <c r="D1">
-        <v>5040</v>
+        <v>2530</v>
       </c>
       <c r="E1" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2">
+        <v>2695430</v>
+      </c>
+      <c r="D2">
+        <v>5060</v>
+      </c>
+      <c r="E2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3">
+        <v>1665250</v>
+      </c>
+      <c r="D3">
+        <v>2535</v>
+      </c>
+      <c r="E3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4">
+        <v>3115640</v>
+      </c>
+      <c r="D4">
+        <v>5070</v>
+      </c>
+      <c r="E4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5">
+        <v>1902430</v>
+      </c>
+      <c r="D5">
+        <v>2550</v>
+      </c>
+      <c r="E5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6">
+        <v>3929450</v>
+      </c>
+      <c r="D6">
+        <v>5100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7">
+        <v>3059520</v>
+      </c>
+      <c r="D7">
+        <v>5140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8">
+        <v>4125360</v>
+      </c>
+      <c r="D8">
+        <v>5140</v>
+      </c>
+      <c r="E8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9">
+        <v>3459540</v>
+      </c>
+      <c r="D9">
+        <v>5180</v>
+      </c>
+      <c r="E9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10">
+        <v>5149700</v>
+      </c>
+      <c r="D10">
+        <v>5180</v>
+      </c>
+      <c r="E10" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
